--- a/biology/Médecine/Fernando_Magalhães/Fernando_Magalhães.xlsx
+++ b/biology/Médecine/Fernando_Magalhães/Fernando_Magalhães.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fernando_Magalh%C3%A3es</t>
+          <t>Fernando_Magalhães</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernando Augusto Ribeiro Magalhães, né le 18 février 1878 à Rio de Janeiro et mort le 10 janvier 1944 dans la même ville, est un médecin-obstétricien brésilien, professeur de clinique gynécologique et obstétrique, considéré par certains comme le créateur de l'école brésilienne d'obstétrique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fernando_Magalh%C3%A3es</t>
+          <t>Fernando_Magalhães</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernando Magalhães était le fils d'Antônio Joaquim Ribeiro de Magalhães et de Deolinda Magalhães. Après avoir obtenu ses diplômes de bachelier ès-sciences et ès-lettres au collège Pierre-II (Colégio Pedro II), il poursuivit ses études à la Faculté de médecine de Rio de Janeiro, où il obtint son diplôme de docteur en médecine en 1899.
 En 1900-1901, il devint interne de clinique gynécologique et obstétrique et fut doyen de la Faculté d'obstétrique de 1901 à 1910, professeur de Clinique obstétrique, de 1911 à 1915, directeur de la maternité de l'hôpital de Rio de Janeiro de 1915 à 1918, titulaire de la chaire de Clinique obstétrique en 1922. Il fut également directeur de la Faculté de médecine en 1930 et recteur de l'université de Rio de Janeiro en 1933.
